--- a/xlsx/Template talk-美国索引_intext.xlsx
+++ b/xlsx/Template talk-美国索引_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Template talk-WikiProject United States</t>
   </si>
   <si>
-    <t>政策_政策_美國_Template talk-美国索引</t>
+    <t>政策_政策_美国_Template talk-美国索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
